--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H2">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.446323779148727</v>
+        <v>1.158627</v>
       </c>
       <c r="N2">
-        <v>0.446323779148727</v>
+        <v>3.475881</v>
       </c>
       <c r="O2">
-        <v>0.0425028772710102</v>
+        <v>0.09636025486884757</v>
       </c>
       <c r="P2">
-        <v>0.0425028772710102</v>
+        <v>0.09636025486884758</v>
       </c>
       <c r="Q2">
-        <v>15.73084009632546</v>
+        <v>42.62179428701801</v>
       </c>
       <c r="R2">
-        <v>15.73084009632546</v>
+        <v>383.5961485831621</v>
       </c>
       <c r="S2">
-        <v>0.006568683746349083</v>
+        <v>0.01519545304850114</v>
       </c>
       <c r="T2">
-        <v>0.006568683746349083</v>
+        <v>0.01519545304850114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H3">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.65940917788356</v>
+        <v>0.450595</v>
       </c>
       <c r="N3">
-        <v>9.65940917788356</v>
+        <v>1.351785</v>
       </c>
       <c r="O3">
-        <v>0.9198539311105075</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="P3">
-        <v>0.9198539311105075</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="Q3">
-        <v>340.4493067612937</v>
+        <v>16.57579824806334</v>
       </c>
       <c r="R3">
-        <v>340.4493067612937</v>
+        <v>149.18218423257</v>
       </c>
       <c r="S3">
-        <v>0.1421604831073896</v>
+        <v>0.005909576737284191</v>
       </c>
       <c r="T3">
-        <v>0.1421604831073896</v>
+        <v>0.005909576737284192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H4">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I4">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J4">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.395292098350248</v>
+        <v>9.934199999999999</v>
       </c>
       <c r="N4">
-        <v>0.395292098350248</v>
+        <v>29.8026</v>
       </c>
       <c r="O4">
-        <v>0.03764319161848225</v>
+        <v>0.8262038118549847</v>
       </c>
       <c r="P4">
-        <v>0.03764319161848225</v>
+        <v>0.8262038118549848</v>
       </c>
       <c r="Q4">
-        <v>13.93221038401499</v>
+        <v>365.4441237828</v>
       </c>
       <c r="R4">
-        <v>13.93221038401499</v>
+        <v>3288.9971140452</v>
       </c>
       <c r="S4">
-        <v>0.005817634871361532</v>
+        <v>0.1302875469624132</v>
       </c>
       <c r="T4">
-        <v>0.005817634871361532</v>
+        <v>0.1302875469624133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.889030095638</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H5">
-        <v>103.889030095638</v>
+        <v>110.359402</v>
       </c>
       <c r="I5">
-        <v>0.4555413693286609</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J5">
-        <v>0.4555413693286609</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446323779148727</v>
+        <v>0.4804876666666666</v>
       </c>
       <c r="N5">
-        <v>0.446323779148727</v>
+        <v>1.441463</v>
       </c>
       <c r="O5">
-        <v>0.0425028772710102</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="P5">
-        <v>0.0425028772710102</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="Q5">
-        <v>46.36814452438099</v>
+        <v>17.67544385390289</v>
       </c>
       <c r="R5">
-        <v>46.36814452438099</v>
+        <v>159.078994685126</v>
       </c>
       <c r="S5">
-        <v>0.019361818912444</v>
+        <v>0.006301620607164513</v>
       </c>
       <c r="T5">
-        <v>0.019361818912444</v>
+        <v>0.006301620607164515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H6">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I6">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J6">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.65940917788356</v>
+        <v>1.158627</v>
       </c>
       <c r="N6">
-        <v>9.65940917788356</v>
+        <v>3.475881</v>
       </c>
       <c r="O6">
-        <v>0.9198539311105075</v>
+        <v>0.09636025486884757</v>
       </c>
       <c r="P6">
-        <v>0.9198539311105075</v>
+        <v>0.09636025486884758</v>
       </c>
       <c r="Q6">
-        <v>1003.506650787227</v>
+        <v>120.403696759666</v>
       </c>
       <c r="R6">
-        <v>1003.506650787227</v>
+        <v>1083.633270836994</v>
       </c>
       <c r="S6">
-        <v>0.4190315193604323</v>
+        <v>0.04292613090516324</v>
       </c>
       <c r="T6">
-        <v>0.4190315193604323</v>
+        <v>0.04292613090516325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H7">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I7">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J7">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.395292098350248</v>
+        <v>0.450595</v>
       </c>
       <c r="N7">
-        <v>0.395292098350248</v>
+        <v>1.351785</v>
       </c>
       <c r="O7">
-        <v>0.03764319161848225</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="P7">
-        <v>0.03764319161848225</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="Q7">
-        <v>41.06651270207681</v>
+        <v>46.82551307834333</v>
       </c>
       <c r="R7">
-        <v>41.06651270207681</v>
+        <v>421.42961770509</v>
       </c>
       <c r="S7">
-        <v>0.01714803105578457</v>
+        <v>0.01669415606162469</v>
       </c>
       <c r="T7">
-        <v>0.01714803105578457</v>
+        <v>0.01669415606162469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.4245107335364</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H8">
-        <v>39.4245107335364</v>
+        <v>311.757874</v>
       </c>
       <c r="I8">
-        <v>0.1728719152362336</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J8">
-        <v>0.1728719152362336</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.446323779148727</v>
+        <v>9.934199999999999</v>
       </c>
       <c r="N8">
-        <v>0.446323779148727</v>
+        <v>29.8026</v>
       </c>
       <c r="O8">
-        <v>0.0425028772710102</v>
+        <v>0.8262038118549847</v>
       </c>
       <c r="P8">
-        <v>0.0425028772710102</v>
+        <v>0.8262038118549848</v>
       </c>
       <c r="Q8">
-        <v>17.59609662168152</v>
+        <v>1032.3550239636</v>
       </c>
       <c r="R8">
-        <v>17.59609662168152</v>
+        <v>9291.1952156724</v>
       </c>
       <c r="S8">
-        <v>0.007347553796890117</v>
+        <v>0.3680535406460169</v>
       </c>
       <c r="T8">
-        <v>0.007347553796890117</v>
+        <v>0.3680535406460169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.4245107335364</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H9">
-        <v>39.4245107335364</v>
+        <v>311.757874</v>
       </c>
       <c r="I9">
-        <v>0.1728719152362336</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J9">
-        <v>0.1728719152362336</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.65940917788356</v>
+        <v>0.4804876666666666</v>
       </c>
       <c r="N9">
-        <v>9.65940917788356</v>
+        <v>1.441463</v>
       </c>
       <c r="O9">
-        <v>0.9198539311105075</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="P9">
-        <v>0.9198539311105075</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="Q9">
-        <v>380.8174808130905</v>
+        <v>49.93193781440689</v>
       </c>
       <c r="R9">
-        <v>380.8174808130905</v>
+        <v>449.387440329662</v>
       </c>
       <c r="S9">
-        <v>0.1590169108086519</v>
+        <v>0.01780165357587021</v>
       </c>
       <c r="T9">
-        <v>0.1590169108086519</v>
+        <v>0.01780165357587021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H10">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I10">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J10">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.395292098350248</v>
+        <v>1.158627</v>
       </c>
       <c r="N10">
-        <v>0.395292098350248</v>
+        <v>3.475881</v>
       </c>
       <c r="O10">
-        <v>0.03764319161848225</v>
+        <v>0.09636025486884757</v>
       </c>
       <c r="P10">
-        <v>0.03764319161848225</v>
+        <v>0.09636025486884758</v>
       </c>
       <c r="Q10">
-        <v>15.58419757429148</v>
+        <v>49.883898004849</v>
       </c>
       <c r="R10">
-        <v>15.58419757429148</v>
+        <v>448.955082043641</v>
       </c>
       <c r="S10">
-        <v>0.006507450630691564</v>
+        <v>0.01778452650079495</v>
       </c>
       <c r="T10">
-        <v>0.006507450630691564</v>
+        <v>0.01778452650079496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.4972962842055</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H11">
-        <v>49.4972962842055</v>
+        <v>129.162961</v>
       </c>
       <c r="I11">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J11">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.446323779148727</v>
+        <v>0.450595</v>
       </c>
       <c r="N11">
-        <v>0.446323779148727</v>
+        <v>1.351785</v>
       </c>
       <c r="O11">
-        <v>0.0425028772710102</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="P11">
-        <v>0.0425028772710102</v>
+        <v>0.03747491560496033</v>
       </c>
       <c r="Q11">
-        <v>22.09182033521084</v>
+        <v>19.40006147059833</v>
       </c>
       <c r="R11">
-        <v>22.09182033521084</v>
+        <v>174.600553235385</v>
       </c>
       <c r="S11">
-        <v>0.009224820815326997</v>
+        <v>0.006916478485850667</v>
       </c>
       <c r="T11">
-        <v>0.009224820815326997</v>
+        <v>0.006916478485850668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.4972962842055</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H12">
-        <v>49.4972962842055</v>
+        <v>129.162961</v>
       </c>
       <c r="I12">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J12">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.65940917788356</v>
+        <v>9.934199999999999</v>
       </c>
       <c r="N12">
-        <v>9.65940917788356</v>
+        <v>29.8026</v>
       </c>
       <c r="O12">
-        <v>0.9198539311105075</v>
+        <v>0.8262038118549847</v>
       </c>
       <c r="P12">
-        <v>0.9198539311105075</v>
+        <v>0.8262038118549848</v>
       </c>
       <c r="Q12">
-        <v>478.1146380080764</v>
+        <v>427.7102290553999</v>
       </c>
       <c r="R12">
-        <v>478.1146380080764</v>
+        <v>3849.3920614986</v>
       </c>
       <c r="S12">
-        <v>0.1996450178340336</v>
+        <v>0.1524865579381433</v>
       </c>
       <c r="T12">
-        <v>0.1996450178340336</v>
+        <v>0.1524865579381434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.4972962842055</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H13">
-        <v>49.4972962842055</v>
+        <v>129.162961</v>
       </c>
       <c r="I13">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J13">
-        <v>0.2170399137100052</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.395292098350248</v>
+        <v>0.4804876666666666</v>
       </c>
       <c r="N13">
-        <v>0.395292098350248</v>
+        <v>1.441463</v>
       </c>
       <c r="O13">
-        <v>0.03764319161848225</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="P13">
-        <v>0.03764319161848225</v>
+        <v>0.03996101767120728</v>
       </c>
       <c r="Q13">
-        <v>19.56589011084752</v>
+        <v>20.68706991688255</v>
       </c>
       <c r="R13">
-        <v>19.56589011084752</v>
+        <v>186.183629251943</v>
       </c>
       <c r="S13">
-        <v>0.00817007506064458</v>
+        <v>0.007375320652063575</v>
       </c>
       <c r="T13">
-        <v>0.00817007506064458</v>
+        <v>0.007375320652063576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>49.51716233333334</v>
+      </c>
+      <c r="H14">
+        <v>148.551487</v>
+      </c>
+      <c r="I14">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="J14">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>1.158627</v>
+      </c>
+      <c r="N14">
+        <v>3.475881</v>
+      </c>
+      <c r="O14">
+        <v>0.09636025486884757</v>
+      </c>
+      <c r="P14">
+        <v>0.09636025486884758</v>
+      </c>
+      <c r="Q14">
+        <v>57.37192124278301</v>
+      </c>
+      <c r="R14">
+        <v>516.3472911850471</v>
+      </c>
+      <c r="S14">
+        <v>0.02045414441438825</v>
+      </c>
+      <c r="T14">
+        <v>0.02045414441438825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>49.51716233333334</v>
+      </c>
+      <c r="H15">
+        <v>148.551487</v>
+      </c>
+      <c r="I15">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="J15">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.450595</v>
+      </c>
+      <c r="N15">
+        <v>1.351785</v>
+      </c>
+      <c r="O15">
+        <v>0.03747491560496033</v>
+      </c>
+      <c r="P15">
+        <v>0.03747491560496033</v>
+      </c>
+      <c r="Q15">
+        <v>22.31218576158834</v>
+      </c>
+      <c r="R15">
+        <v>200.809671854295</v>
+      </c>
+      <c r="S15">
+        <v>0.007954704320200782</v>
+      </c>
+      <c r="T15">
+        <v>0.007954704320200784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>49.51716233333334</v>
+      </c>
+      <c r="H16">
+        <v>148.551487</v>
+      </c>
+      <c r="I16">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="J16">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.934199999999999</v>
+      </c>
+      <c r="N16">
+        <v>29.8026</v>
+      </c>
+      <c r="O16">
+        <v>0.8262038118549847</v>
+      </c>
+      <c r="P16">
+        <v>0.8262038118549848</v>
+      </c>
+      <c r="Q16">
+        <v>491.9133940518</v>
+      </c>
+      <c r="R16">
+        <v>4427.2205464662</v>
+      </c>
+      <c r="S16">
+        <v>0.1753761663084113</v>
+      </c>
+      <c r="T16">
+        <v>0.1753761663084114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>49.51716233333334</v>
+      </c>
+      <c r="H17">
+        <v>148.551487</v>
+      </c>
+      <c r="I17">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="J17">
+        <v>0.2122674378791094</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4804876666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.441463</v>
+      </c>
+      <c r="O17">
+        <v>0.03996101767120728</v>
+      </c>
+      <c r="P17">
+        <v>0.03996101767120728</v>
+      </c>
+      <c r="Q17">
+        <v>23.79238578949789</v>
+      </c>
+      <c r="R17">
+        <v>214.131472105481</v>
+      </c>
+      <c r="S17">
+        <v>0.008482422836108982</v>
+      </c>
+      <c r="T17">
+        <v>0.008482422836108984</v>
       </c>
     </row>
   </sheetData>
